--- a/assignments/hw1/hierarchy/Measurements.xlsx
+++ b/assignments/hw1/hierarchy/Measurements.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cseas/Library/CloudStorage/OneDrive-UniversityofCyprus/UCY/EPL_499-Datacenters/epl499/assignments/hw1/hierarchy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\cseas\EPL499\new_repository\cs499-fa22\assignments\hw1\hierarchy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C19F268-D3E7-B94D-9236-2A6B1FDD4623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9FA047-486A-40C2-A65D-D68A0E74293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9E5C52C9-A894-5746-A855-5229514C58A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E5C52C9-A894-5746-A855-5229514C58A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bandwidth" sheetId="1" r:id="rId1"/>
-    <sheet name="Latency" sheetId="2" r:id="rId2"/>
+    <sheet name="Bandwidth and Latency" sheetId="3" r:id="rId1"/>
+    <sheet name="Bandwidth" sheetId="1" r:id="rId2"/>
+    <sheet name="Latency" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Latency!$B$1:$D$1</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Latency!$B$2:$D$2</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Local Disk</t>
   </si>
@@ -57,11 +54,26 @@
   <si>
     <t>ms</t>
   </si>
+  <si>
+    <t>Bandwidth (MB/s)</t>
+  </si>
+  <si>
+    <t>Latency (ms)</t>
+  </si>
+  <si>
+    <t>Cluster used:</t>
+  </si>
+  <si>
+    <t>c220g2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -98,10 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,7 +135,611 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bandwidth and Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bandwidth and Latency'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandwidth (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bandwidth and Latency'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Local Disk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth and Latency'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16074.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4230</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E178-4079-A189-522E0CA1C936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="504934623"/>
+        <c:axId val="504935039"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bandwidth and Latency'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Latency (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Bandwidth and Latency'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Local Disk</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DRAM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Network</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Bandwidth and Latency'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E178-4079-A189-522E0CA1C936}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="504933375"/>
+        <c:axId val="504932959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="504934623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504935039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="504935039"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Megabytes/second</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (logarithmic)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504934623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="504932959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504933375"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="504933375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="504932959"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -189,7 +806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CY"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -308,7 +925,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CY"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="659791104"/>
@@ -412,7 +1029,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-CY"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -444,7 +1061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CY"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="659789424"/>
@@ -485,7 +1102,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CY"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -496,10 +1113,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -561,7 +1178,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CY"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -680,7 +1297,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CY"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="657784368"/>
@@ -739,7 +1356,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CY"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="657782720"/>
@@ -780,7 +1397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CY"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -871,6 +1488,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1877,7 +2534,551 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D20827-7A6B-668E-0982-8568D07A6FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1918,7 +3119,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2255,19 +3456,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6FB190-E5D3-4FEE-9B2F-7C362CEB5432}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>172</v>
+      </c>
+      <c r="C2" s="3">
+        <v>16074.9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECD3F07-AA0C-E144-AA7E-D8B87066E28C}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.83203125" style="2"/>
+    <col min="2" max="4" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +3549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2298,17 +3569,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243AC389-B51F-6C4C-8ABC-265EBE4A5FAD}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
